--- a/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/NLCS-OBJECTEN-GK-5.1.xlsx
+++ b/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/NLCS-OBJECTEN-GK-5.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\100289\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingcrow-my.sharepoint.com/personal/elisabeth_devries_crow_nl/Documents/Documents/GitHub/NLCS/ontwikkeling/concept 5.1.1/tabellen/objecten-classic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C2821-9041-46A7-B3F9-806A4DB21FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{D04C2821-9041-46A7-B3F9-806A4DB21FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B203F8-DDFD-4DE3-87D2-1ECE1697FFA7}"/>
   <bookViews>
-    <workbookView xWindow="-25905" yWindow="-3525" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25905" yWindow="3390" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="224">
   <si>
     <t>OMSCHRIJVING</t>
   </si>
@@ -683,109 +683,34 @@
     <t>BESCHOEIING2</t>
   </si>
   <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING1_PLANKEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING1_SCHOTTEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING1</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING2_PLANKEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING2_SCHOTTEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING2</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING3_PLANKEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING3_SCHOTTEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_BESCHOEIING3</t>
-  </si>
-  <si>
-    <t>*-**-GK-DAMWAND_BETON</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_COMBINATIE</t>
-  </si>
-  <si>
-    <t>*-**-GK-DAMWAND_DAMWAND1</t>
-  </si>
-  <si>
-    <t>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE</t>
-  </si>
-  <si>
-    <t>*-**-GK-DAMWAND_HOUT</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_HOUT</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEING_HOUT</t>
-  </si>
-  <si>
-    <t>*-**-GK-DAMWAND_KUNSTSTOF</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING_KUNSTSTOF</t>
-  </si>
-  <si>
-    <t>*-**-GK-KEERWAND_LEGIOBLOKKEN</t>
-  </si>
-  <si>
-    <t>*-**-GK-KEERWAND_LWAND</t>
-  </si>
-  <si>
-    <t>*-**-GK-KADEMUUR_ONTLASTVLOER</t>
-  </si>
-  <si>
-    <t>*-**-GK-KADEMUUR_OVERBOUWD TALUD</t>
-  </si>
-  <si>
-    <t>*-**-GK-KEERWAND_SCHANSKORF</t>
-  </si>
-  <si>
-    <t>*-**-GK-DAMWAND_STAAL</t>
-  </si>
-  <si>
-    <t>*-**-GK-KEERWAND_TERRE ARMEE</t>
-  </si>
-  <si>
-    <t>*-**-GK-KEERWAND_TWAND</t>
-  </si>
-  <si>
-    <t>*-**-GK-KADEMUUR_WANDCONSTRUCTIE</t>
-  </si>
-  <si>
-    <t>*-**-GK-DIEPWAND</t>
-  </si>
-  <si>
-    <t>*-**-GK-DAMWAND</t>
-  </si>
-  <si>
-    <t>*-**-GK-BESCHOEIING</t>
-  </si>
-  <si>
-    <t>*-**-GK-BERLINERWAND</t>
-  </si>
-  <si>
-    <t>*-**-GK-KADEMUUR</t>
-  </si>
-  <si>
-    <t>*-**-GK-COMBIWAND</t>
-  </si>
-  <si>
-    <t>*-**-GK-PALENRIJ</t>
-  </si>
-  <si>
-    <t>*-**-GK-KEERWAND</t>
+    <t>BLOKKENMUUR</t>
+  </si>
+  <si>
+    <t>CAISSONWAND</t>
+  </si>
+  <si>
+    <t>CELLENWAND</t>
+  </si>
+  <si>
+    <t>L MUUR</t>
+  </si>
+  <si>
+    <t>DIEPGELEGEN</t>
+  </si>
+  <si>
+    <t>HOOGGELEGEN</t>
+  </si>
+  <si>
+    <t>DEK OVER GLOOIINGSCONSTRUCTIE</t>
+  </si>
+  <si>
+    <t>MET KERENDE WAND</t>
+  </si>
+  <si>
+    <t>ONVERANKERD</t>
+  </si>
+  <si>
+    <t>VERANKERD</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BG61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,8 +1263,9 @@
       <c r="H2" t="s">
         <v>144</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>244</v>
+      <c r="Y2" s="1" t="str">
+        <f>B2&amp;C2&amp;D2&amp;E2&amp;F2&amp;G2&amp;H2&amp;I2&amp;J2&amp;K2&amp;L2&amp;M2&amp;N2&amp;O2&amp;P2&amp;Q2&amp;R2&amp;S2&amp;T2</f>
+        <v>*-**-GK-BERLINERWAND</v>
       </c>
       <c r="Z2" t="s">
         <v>55</v>
@@ -1457,8 +1383,9 @@
       <c r="H3" t="s">
         <v>143</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>243</v>
+      <c r="Y3" s="1" t="str">
+        <f>B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
+        <v>*-**-GK-BESCHOEIING</v>
       </c>
       <c r="Z3" t="s">
         <v>55</v>
@@ -1582,8 +1509,9 @@
       <c r="J4" t="s">
         <v>212</v>
       </c>
-      <c r="Y4" s="1" t="s">
-        <v>216</v>
+      <c r="Y4" s="1" t="str">
+        <f>B4&amp;C4&amp;D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4&amp;K4&amp;L4&amp;M4&amp;N4&amp;O4&amp;P4&amp;Q4&amp;R4&amp;S4&amp;T4</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING1</v>
       </c>
       <c r="Z4" t="s">
         <v>55</v>
@@ -1710,8 +1638,15 @@
       <c r="J5" t="s">
         <v>212</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>216</v>
+      <c r="K5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f>B5&amp;C5&amp;D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5&amp;K5&amp;L5&amp;M5&amp;N5&amp;O5&amp;P5&amp;Q5&amp;R5&amp;S5&amp;T5</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING1_COMBINATIE</v>
       </c>
       <c r="Z5" t="s">
         <v>55</v>
@@ -1835,8 +1770,15 @@
       <c r="J6" t="s">
         <v>212</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>216</v>
+      <c r="K6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y6" s="1" t="str">
+        <f>B6&amp;C6&amp;D6&amp;E6&amp;F6&amp;G6&amp;H6&amp;I6&amp;J6&amp;K6&amp;L6&amp;M6&amp;N6&amp;O6&amp;P6&amp;Q6&amp;R6&amp;S6&amp;T6</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING1_HOUT</v>
       </c>
       <c r="Z6" t="s">
         <v>55</v>
@@ -1964,10 +1906,17 @@
         <v>6</v>
       </c>
       <c r="L7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
         <v>208</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>214</v>
+      <c r="Y7" s="1" t="str">
+        <f>B7&amp;C7&amp;D7&amp;E7&amp;F7&amp;G7&amp;H7&amp;I7&amp;J7&amp;K7&amp;L7&amp;M7&amp;N7&amp;O7&amp;P7&amp;Q7&amp;R7&amp;S7&amp;T7</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING1_HOUT_PLANKEN</v>
       </c>
       <c r="Z7" t="s">
         <v>55</v>
@@ -2095,10 +2044,17 @@
         <v>6</v>
       </c>
       <c r="L8" t="s">
+        <v>198</v>
+      </c>
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
         <v>206</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>215</v>
+      <c r="Y8" s="1" t="str">
+        <f>B8&amp;C8&amp;D8&amp;E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8&amp;K8&amp;L8&amp;M8&amp;N8&amp;O8&amp;P8&amp;Q8&amp;R8&amp;S8&amp;T8</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING1_HOUT_SCHOTTEN</v>
       </c>
       <c r="Z8" t="s">
         <v>55</v>
@@ -2222,8 +2178,15 @@
       <c r="J9" t="s">
         <v>212</v>
       </c>
-      <c r="Y9" s="1" t="s">
-        <v>216</v>
+      <c r="K9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f>B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9&amp;K9&amp;L9&amp;M9&amp;N9&amp;O9&amp;P9&amp;Q9&amp;R9&amp;S9&amp;T9</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING1_KUNSTSTOF</v>
       </c>
       <c r="Z9" t="s">
         <v>55</v>
@@ -2347,8 +2310,9 @@
       <c r="J10" t="s">
         <v>213</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>219</v>
+      <c r="Y10" s="1" t="str">
+        <f>B10&amp;C10&amp;D10&amp;E10&amp;F10&amp;G10&amp;H10&amp;I10&amp;J10&amp;K10&amp;L10&amp;M10&amp;N10&amp;O10&amp;P10&amp;Q10&amp;R10&amp;S10&amp;T10</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING2</v>
       </c>
       <c r="Z10" t="s">
         <v>55</v>
@@ -2475,8 +2439,15 @@
       <c r="J11" t="s">
         <v>213</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>219</v>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f>B11&amp;C11&amp;D11&amp;E11&amp;F11&amp;G11&amp;H11&amp;I11&amp;J11&amp;K11&amp;L11&amp;M11&amp;N11&amp;O11&amp;P11&amp;Q11&amp;R11&amp;S11&amp;T11</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING2_COMBINATIE</v>
       </c>
       <c r="Z11" t="s">
         <v>55</v>
@@ -2600,8 +2571,15 @@
       <c r="J12" t="s">
         <v>213</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>219</v>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f>B12&amp;C12&amp;D12&amp;E12&amp;F12&amp;G12&amp;H12&amp;I12&amp;J12&amp;K12&amp;L12&amp;M12&amp;N12&amp;O12&amp;P12&amp;Q12&amp;R12&amp;S12&amp;T12</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING2_HOUT</v>
       </c>
       <c r="Z12" t="s">
         <v>55</v>
@@ -2729,10 +2707,17 @@
         <v>6</v>
       </c>
       <c r="L13" t="s">
+        <v>198</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
         <v>208</v>
       </c>
-      <c r="Y13" s="1" t="s">
-        <v>217</v>
+      <c r="Y13" s="1" t="str">
+        <f>B13&amp;C13&amp;D13&amp;E13&amp;F13&amp;G13&amp;H13&amp;I13&amp;J13&amp;K13&amp;L13&amp;M13&amp;N13&amp;O13&amp;P13&amp;Q13&amp;R13&amp;S13&amp;T13</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING2_HOUT_PLANKEN</v>
       </c>
       <c r="Z13" t="s">
         <v>55</v>
@@ -2860,10 +2845,17 @@
         <v>6</v>
       </c>
       <c r="L14" t="s">
+        <v>198</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
         <v>206</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>218</v>
+      <c r="Y14" s="1" t="str">
+        <f>B14&amp;C14&amp;D14&amp;E14&amp;F14&amp;G14&amp;H14&amp;I14&amp;J14&amp;K14&amp;L14&amp;M14&amp;N14&amp;O14&amp;P14&amp;Q14&amp;R14&amp;S14&amp;T14</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING2_HOUT_SCHOTTEN</v>
       </c>
       <c r="Z14" t="s">
         <v>55</v>
@@ -2987,8 +2979,15 @@
       <c r="J15" t="s">
         <v>213</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>219</v>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y15" s="1" t="str">
+        <f>B15&amp;C15&amp;D15&amp;E15&amp;F15&amp;G15&amp;H15&amp;I15&amp;J15&amp;K15&amp;L15&amp;M15&amp;N15&amp;O15&amp;P15&amp;Q15&amp;R15&amp;S15&amp;T15</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING2_KUNSTSTOF</v>
       </c>
       <c r="Z15" t="s">
         <v>55</v>
@@ -3112,8 +3111,9 @@
       <c r="J16" t="s">
         <v>211</v>
       </c>
-      <c r="Y16" s="1" t="s">
-        <v>222</v>
+      <c r="Y16" s="1" t="str">
+        <f>B16&amp;C16&amp;D16&amp;E16&amp;F16&amp;G16&amp;H16&amp;I16&amp;J16&amp;K16&amp;L16&amp;M16&amp;N16&amp;O16&amp;P16&amp;Q16&amp;R16&amp;S16&amp;T16</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING3</v>
       </c>
       <c r="Z16" t="s">
         <v>55</v>
@@ -3240,8 +3240,15 @@
       <c r="J17" t="s">
         <v>211</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>222</v>
+      <c r="K17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f>B17&amp;C17&amp;D17&amp;E17&amp;F17&amp;G17&amp;H17&amp;I17&amp;J17&amp;K17&amp;L17&amp;M17&amp;N17&amp;O17&amp;P17&amp;Q17&amp;R17&amp;S17&amp;T17</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING3_COMBINATIE</v>
       </c>
       <c r="Z17" t="s">
         <v>55</v>
@@ -3365,8 +3372,15 @@
       <c r="J18" t="s">
         <v>211</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>222</v>
+      <c r="K18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <f>B18&amp;C18&amp;D18&amp;E18&amp;F18&amp;G18&amp;H18&amp;I18&amp;J18&amp;K18&amp;L18&amp;M18&amp;N18&amp;O18&amp;P18&amp;Q18&amp;R18&amp;S18&amp;T18</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING3_HOUT</v>
       </c>
       <c r="Z18" t="s">
         <v>55</v>
@@ -3494,10 +3508,17 @@
         <v>6</v>
       </c>
       <c r="L19" t="s">
+        <v>198</v>
+      </c>
+      <c r="M19" t="s">
+        <v>6</v>
+      </c>
+      <c r="N19" t="s">
         <v>208</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>220</v>
+      <c r="Y19" s="1" t="str">
+        <f>B19&amp;C19&amp;D19&amp;E19&amp;F19&amp;G19&amp;H19&amp;I19&amp;J19&amp;K19&amp;L19&amp;M19&amp;N19&amp;O19&amp;P19&amp;Q19&amp;R19&amp;S19&amp;T19</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING3_HOUT_PLANKEN</v>
       </c>
       <c r="Z19" t="s">
         <v>55</v>
@@ -3625,10 +3646,17 @@
         <v>6</v>
       </c>
       <c r="L20" t="s">
+        <v>198</v>
+      </c>
+      <c r="M20" t="s">
+        <v>6</v>
+      </c>
+      <c r="N20" t="s">
         <v>206</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>221</v>
+      <c r="Y20" s="1" t="str">
+        <f>B20&amp;C20&amp;D20&amp;E20&amp;F20&amp;G20&amp;H20&amp;I20&amp;J20&amp;K20&amp;L20&amp;M20&amp;N20&amp;O20&amp;P20&amp;Q20&amp;R20&amp;S20&amp;T20</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING3_HOUT_SCHOTTEN</v>
       </c>
       <c r="Z20" t="s">
         <v>55</v>
@@ -3752,8 +3780,15 @@
       <c r="J21" t="s">
         <v>211</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>222</v>
+      <c r="K21" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y21" s="1" t="str">
+        <f>B21&amp;C21&amp;D21&amp;E21&amp;F21&amp;G21&amp;H21&amp;I21&amp;J21&amp;K21&amp;L21&amp;M21&amp;N21&amp;O21&amp;P21&amp;Q21&amp;R21&amp;S21&amp;T21</f>
+        <v>*-**-GK-BESCHOEIING_BESCHOEIING3_KUNSTSTOF</v>
       </c>
       <c r="Z21" t="s">
         <v>55</v>
@@ -3877,8 +3912,9 @@
       <c r="J22" t="s">
         <v>201</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>224</v>
+      <c r="Y22" s="1" t="str">
+        <f>B22&amp;C22&amp;D22&amp;E22&amp;F22&amp;G22&amp;H22&amp;I22&amp;J22&amp;K22&amp;L22&amp;M22&amp;N22&amp;O22&amp;P22&amp;Q22&amp;R22&amp;S22&amp;T22</f>
+        <v>*-**-GK-BESCHOEIING_COMBINATIE</v>
       </c>
       <c r="Z22" t="s">
         <v>55</v>
@@ -4008,8 +4044,9 @@
       <c r="J23" t="s">
         <v>198</v>
       </c>
-      <c r="Y23" s="1" t="s">
-        <v>228</v>
+      <c r="Y23" s="1" t="str">
+        <f>B23&amp;C23&amp;D23&amp;E23&amp;F23&amp;G23&amp;H23&amp;I23&amp;J23&amp;K23&amp;L23&amp;M23&amp;N23&amp;O23&amp;P23&amp;Q23&amp;R23&amp;S23&amp;T23</f>
+        <v>*-**-GK-BESCHOEIING_HOUT</v>
       </c>
       <c r="Z23" t="s">
         <v>55</v>
@@ -4139,8 +4176,15 @@
       <c r="J24" t="s">
         <v>198</v>
       </c>
-      <c r="Y24" s="1" t="s">
-        <v>228</v>
+      <c r="K24" t="s">
+        <v>6</v>
+      </c>
+      <c r="L24" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y24" s="1" t="str">
+        <f>B24&amp;C24&amp;D24&amp;E24&amp;F24&amp;G24&amp;H24&amp;I24&amp;J24&amp;K24&amp;L24&amp;M24&amp;N24&amp;O24&amp;P24&amp;Q24&amp;R24&amp;S24&amp;T24</f>
+        <v>*-**-GK-BESCHOEIING_HOUT_SCHOTTEN</v>
       </c>
       <c r="Z24" t="s">
         <v>55</v>
@@ -4270,8 +4314,9 @@
       <c r="J25" t="s">
         <v>197</v>
       </c>
-      <c r="Y25" s="1" t="s">
-        <v>231</v>
+      <c r="Y25" s="1" t="str">
+        <f>B25&amp;C25&amp;D25&amp;E25&amp;F25&amp;G25&amp;H25&amp;I25&amp;J25&amp;K25&amp;L25&amp;M25&amp;N25&amp;O25&amp;P25&amp;Q25&amp;R25&amp;S25&amp;T25</f>
+        <v>*-**-GK-BESCHOEIING_KUNSTSTOF</v>
       </c>
       <c r="Z25" t="s">
         <v>55</v>
@@ -4398,8 +4443,15 @@
       <c r="J26" t="s">
         <v>198</v>
       </c>
-      <c r="Y26" s="1" t="s">
-        <v>229</v>
+      <c r="K26" t="s">
+        <v>6</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y26" s="1" t="str">
+        <f>B26&amp;C26&amp;D26&amp;E26&amp;F26&amp;G26&amp;H26&amp;I26&amp;J26&amp;K26&amp;L26&amp;M26&amp;N26&amp;O26&amp;P26&amp;Q26&amp;R26&amp;S26&amp;T26</f>
+        <v>*-**-GK-BESCHOEING_HOUT_PLANKEN</v>
       </c>
       <c r="Z26" t="s">
         <v>55</v>
@@ -4523,8 +4575,9 @@
       <c r="H27" t="s">
         <v>147</v>
       </c>
-      <c r="Y27" s="1" t="s">
-        <v>246</v>
+      <c r="Y27" s="1" t="str">
+        <f>B27&amp;C27&amp;D27&amp;E27&amp;F27&amp;G27&amp;H27&amp;I27&amp;J27&amp;K27&amp;L27&amp;M27&amp;N27&amp;O27&amp;P27&amp;Q27&amp;R27&amp;S27&amp;T27</f>
+        <v>*-**-GK-COMBIWAND</v>
       </c>
       <c r="Z27" t="s">
         <v>55</v>
@@ -4642,8 +4695,9 @@
       <c r="H28" t="s">
         <v>142</v>
       </c>
-      <c r="Y28" s="1" t="s">
-        <v>242</v>
+      <c r="Y28" s="1" t="str">
+        <f>B28&amp;C28&amp;D28&amp;E28&amp;F28&amp;G28&amp;H28&amp;I28&amp;J28&amp;K28&amp;L28&amp;M28&amp;N28&amp;O28&amp;P28&amp;Q28&amp;R28&amp;S28&amp;T28</f>
+        <v>*-**-GK-DAMWAND</v>
       </c>
       <c r="Z28" t="s">
         <v>55</v>
@@ -4767,8 +4821,9 @@
       <c r="J29" t="s">
         <v>200</v>
       </c>
-      <c r="Y29" s="1" t="s">
-        <v>223</v>
+      <c r="Y29" s="1" t="str">
+        <f>B29&amp;C29&amp;D29&amp;E29&amp;F29&amp;G29&amp;H29&amp;I29&amp;J29&amp;K29&amp;L29&amp;M29&amp;N29&amp;O29&amp;P29&amp;Q29&amp;R29&amp;S29&amp;T29</f>
+        <v>*-**-GK-DAMWAND_BETON</v>
       </c>
       <c r="Z29" t="s">
         <v>55</v>
@@ -4898,8 +4953,9 @@
       <c r="J30" t="s">
         <v>210</v>
       </c>
-      <c r="Y30" s="1" t="s">
-        <v>225</v>
+      <c r="Y30" s="1" t="str">
+        <f>B30&amp;C30&amp;D30&amp;E30&amp;F30&amp;G30&amp;H30&amp;I30&amp;J30&amp;K30&amp;L30&amp;M30&amp;N30&amp;O30&amp;P30&amp;Q30&amp;R30&amp;S30&amp;T30</f>
+        <v>*-**-GK-DAMWAND_DAMWAND1</v>
       </c>
       <c r="Z30" t="s">
         <v>55</v>
@@ -5026,8 +5082,15 @@
       <c r="J31" t="s">
         <v>210</v>
       </c>
-      <c r="Y31" s="1" t="s">
-        <v>225</v>
+      <c r="K31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <f>B31&amp;C31&amp;D31&amp;E31&amp;F31&amp;G31&amp;H31&amp;I31&amp;J31&amp;K31&amp;L31&amp;M31&amp;N31&amp;O31&amp;P31&amp;Q31&amp;R31&amp;S31&amp;T31</f>
+        <v>*-**-GK-DAMWAND_DAMWAND1_BETON</v>
       </c>
       <c r="Z31" t="s">
         <v>55</v>
@@ -5151,8 +5214,15 @@
       <c r="J32" t="s">
         <v>210</v>
       </c>
-      <c r="Y32" s="1" t="s">
-        <v>225</v>
+      <c r="K32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y32" s="1" t="str">
+        <f>B32&amp;C32&amp;D32&amp;E32&amp;F32&amp;G32&amp;H32&amp;I32&amp;J32&amp;K32&amp;L32&amp;M32&amp;N32&amp;O32&amp;P32&amp;Q32&amp;R32&amp;S32&amp;T32</f>
+        <v>*-**-GK-DAMWAND_DAMWAND1_HOUT</v>
       </c>
       <c r="Z32" t="s">
         <v>55</v>
@@ -5276,8 +5346,15 @@
       <c r="J33" t="s">
         <v>210</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>225</v>
+      <c r="K33" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y33" s="1" t="str">
+        <f>B33&amp;C33&amp;D33&amp;E33&amp;F33&amp;G33&amp;H33&amp;I33&amp;J33&amp;K33&amp;L33&amp;M33&amp;N33&amp;O33&amp;P33&amp;Q33&amp;R33&amp;S33&amp;T33</f>
+        <v>*-**-GK-DAMWAND_DAMWAND1_KUNSTSTOF</v>
       </c>
       <c r="Z33" t="s">
         <v>55</v>
@@ -5401,8 +5478,15 @@
       <c r="J34" t="s">
         <v>210</v>
       </c>
-      <c r="Y34" s="1" t="s">
-        <v>225</v>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y34" s="1" t="str">
+        <f>B34&amp;C34&amp;D34&amp;E34&amp;F34&amp;G34&amp;H34&amp;I34&amp;J34&amp;K34&amp;L34&amp;M34&amp;N34&amp;O34&amp;P34&amp;Q34&amp;R34&amp;S34&amp;T34</f>
+        <v>*-**-GK-DAMWAND_DAMWAND1_STAAL</v>
       </c>
       <c r="Z34" t="s">
         <v>55</v>
@@ -5526,8 +5610,9 @@
       <c r="J35" t="s">
         <v>198</v>
       </c>
-      <c r="Y35" s="1" t="s">
-        <v>227</v>
+      <c r="Y35" s="1" t="str">
+        <f>B35&amp;C35&amp;D35&amp;E35&amp;F35&amp;G35&amp;H35&amp;I35&amp;J35&amp;K35&amp;L35&amp;M35&amp;N35&amp;O35&amp;P35&amp;Q35&amp;R35&amp;S35&amp;T35</f>
+        <v>*-**-GK-DAMWAND_HOUT</v>
       </c>
       <c r="Z35" t="s">
         <v>55</v>
@@ -5657,8 +5742,9 @@
       <c r="J36" t="s">
         <v>197</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>230</v>
+      <c r="Y36" s="1" t="str">
+        <f>B36&amp;C36&amp;D36&amp;E36&amp;F36&amp;G36&amp;H36&amp;I36&amp;J36&amp;K36&amp;L36&amp;M36&amp;N36&amp;O36&amp;P36&amp;Q36&amp;R36&amp;S36&amp;T36</f>
+        <v>*-**-GK-DAMWAND_KUNSTSTOF</v>
       </c>
       <c r="Z36" t="s">
         <v>55</v>
@@ -5788,8 +5874,9 @@
       <c r="J37" t="s">
         <v>199</v>
       </c>
-      <c r="Y37" s="1" t="s">
-        <v>237</v>
+      <c r="Y37" s="1" t="str">
+        <f>B37&amp;C37&amp;D37&amp;E37&amp;F37&amp;G37&amp;H37&amp;I37&amp;J37&amp;K37&amp;L37&amp;M37&amp;N37&amp;O37&amp;P37&amp;Q37&amp;R37&amp;S37&amp;T37</f>
+        <v>*-**-GK-DAMWAND_STAAL</v>
       </c>
       <c r="Z37" t="s">
         <v>55</v>
@@ -5913,8 +6000,9 @@
       <c r="H38" t="s">
         <v>140</v>
       </c>
-      <c r="Y38" s="1" t="s">
-        <v>241</v>
+      <c r="Y38" s="1" t="str">
+        <f>B38&amp;C38&amp;D38&amp;E38&amp;F38&amp;G38&amp;H38&amp;I38&amp;J38&amp;K38&amp;L38&amp;M38&amp;N38&amp;O38&amp;P38&amp;Q38&amp;R38&amp;S38&amp;T38</f>
+        <v>*-**-GK-DIEPWAND</v>
       </c>
       <c r="Z38" t="s">
         <v>55</v>
@@ -6032,8 +6120,9 @@
       <c r="H39" t="s">
         <v>146</v>
       </c>
-      <c r="Y39" s="1" t="s">
-        <v>245</v>
+      <c r="Y39" s="1" t="str">
+        <f>B39&amp;C39&amp;D39&amp;E39&amp;F39&amp;G39&amp;H39&amp;I39&amp;J39&amp;K39&amp;L39&amp;M39&amp;N39&amp;O39&amp;P39&amp;Q39&amp;R39&amp;S39&amp;T39</f>
+        <v>*-**-GK-KADEMUUR</v>
       </c>
       <c r="Z39" t="s">
         <v>55</v>
@@ -6157,8 +6246,9 @@
       <c r="J40" t="s">
         <v>204</v>
       </c>
-      <c r="Y40" s="1" t="s">
-        <v>226</v>
+      <c r="Y40" s="1" t="str">
+        <f>B40&amp;C40&amp;D40&amp;E40&amp;F40&amp;G40&amp;H40&amp;I40&amp;J40&amp;K40&amp;L40&amp;M40&amp;N40&amp;O40&amp;P40&amp;Q40&amp;R40&amp;S40&amp;T40</f>
+        <v>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE</v>
       </c>
       <c r="Z40" t="s">
         <v>55</v>
@@ -6288,8 +6378,15 @@
       <c r="J41" t="s">
         <v>204</v>
       </c>
-      <c r="Y41" s="1" t="s">
-        <v>226</v>
+      <c r="K41" t="s">
+        <v>6</v>
+      </c>
+      <c r="L41" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y41" s="1" t="str">
+        <f>B41&amp;C41&amp;D41&amp;E41&amp;F41&amp;G41&amp;H41&amp;I41&amp;J41&amp;K41&amp;L41&amp;M41&amp;N41&amp;O41&amp;P41&amp;Q41&amp;R41&amp;S41&amp;T41</f>
+        <v>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE_BLOKKENMUUR</v>
       </c>
       <c r="Z41" t="s">
         <v>55</v>
@@ -6419,8 +6516,15 @@
       <c r="J42" t="s">
         <v>204</v>
       </c>
-      <c r="Y42" s="1" t="s">
-        <v>226</v>
+      <c r="K42" t="s">
+        <v>6</v>
+      </c>
+      <c r="L42" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y42" s="1" t="str">
+        <f>B42&amp;C42&amp;D42&amp;E42&amp;F42&amp;G42&amp;H42&amp;I42&amp;J42&amp;K42&amp;L42&amp;M42&amp;N42&amp;O42&amp;P42&amp;Q42&amp;R42&amp;S42&amp;T42</f>
+        <v>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE_CAISSONWAND</v>
       </c>
       <c r="Z42" t="s">
         <v>55</v>
@@ -6550,8 +6654,15 @@
       <c r="J43" t="s">
         <v>204</v>
       </c>
-      <c r="Y43" s="1" t="s">
-        <v>226</v>
+      <c r="K43" t="s">
+        <v>6</v>
+      </c>
+      <c r="L43" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y43" s="1" t="str">
+        <f>B43&amp;C43&amp;D43&amp;E43&amp;F43&amp;G43&amp;H43&amp;I43&amp;J43&amp;K43&amp;L43&amp;M43&amp;N43&amp;O43&amp;P43&amp;Q43&amp;R43&amp;S43&amp;T43</f>
+        <v>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE_CELLENWAND</v>
       </c>
       <c r="Z43" t="s">
         <v>55</v>
@@ -6681,8 +6792,15 @@
       <c r="J44" t="s">
         <v>204</v>
       </c>
-      <c r="Y44" s="1" t="s">
-        <v>226</v>
+      <c r="K44" t="s">
+        <v>6</v>
+      </c>
+      <c r="L44" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y44" s="1" t="str">
+        <f>B44&amp;C44&amp;D44&amp;E44&amp;F44&amp;G44&amp;H44&amp;I44&amp;J44&amp;K44&amp;L44&amp;M44&amp;N44&amp;O44&amp;P44&amp;Q44&amp;R44&amp;S44&amp;T44</f>
+        <v>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE_L MUUR</v>
       </c>
       <c r="Z44" t="s">
         <v>55</v>
@@ -6812,8 +6930,15 @@
       <c r="J45" t="s">
         <v>204</v>
       </c>
-      <c r="Y45" s="1" t="s">
-        <v>226</v>
+      <c r="K45" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y45" s="1" t="str">
+        <f>B45&amp;C45&amp;D45&amp;E45&amp;F45&amp;G45&amp;H45&amp;I45&amp;J45&amp;K45&amp;L45&amp;M45&amp;N45&amp;O45&amp;P45&amp;Q45&amp;R45&amp;S45&amp;T45</f>
+        <v>*-**-GK-KADEMUUR_GEWICHTSCONSTRUCTIE_TERRE ARMEE</v>
       </c>
       <c r="Z45" t="s">
         <v>55</v>
@@ -6943,8 +7068,9 @@
       <c r="J46" t="s">
         <v>203</v>
       </c>
-      <c r="Y46" s="1" t="s">
-        <v>234</v>
+      <c r="Y46" s="1" t="str">
+        <f>B46&amp;C46&amp;D46&amp;E46&amp;F46&amp;G46&amp;H46&amp;I46&amp;J46&amp;K46&amp;L46&amp;M46&amp;N46&amp;O46&amp;P46&amp;Q46&amp;R46&amp;S46&amp;T46</f>
+        <v>*-**-GK-KADEMUUR_ONTLASTVLOER</v>
       </c>
       <c r="Z46" t="s">
         <v>55</v>
@@ -7074,8 +7200,15 @@
       <c r="J47" t="s">
         <v>203</v>
       </c>
-      <c r="Y47" s="1" t="s">
-        <v>234</v>
+      <c r="K47" t="s">
+        <v>6</v>
+      </c>
+      <c r="L47" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y47" s="1" t="str">
+        <f>B47&amp;C47&amp;D47&amp;E47&amp;F47&amp;G47&amp;H47&amp;I47&amp;J47&amp;K47&amp;L47&amp;M47&amp;N47&amp;O47&amp;P47&amp;Q47&amp;R47&amp;S47&amp;T47</f>
+        <v>*-**-GK-KADEMUUR_ONTLASTVLOER_DIEPGELEGEN</v>
       </c>
       <c r="Z47" t="s">
         <v>55</v>
@@ -7205,8 +7338,15 @@
       <c r="J48" t="s">
         <v>203</v>
       </c>
-      <c r="Y48" s="1" t="s">
-        <v>234</v>
+      <c r="K48" t="s">
+        <v>6</v>
+      </c>
+      <c r="L48" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y48" s="1" t="str">
+        <f>B48&amp;C48&amp;D48&amp;E48&amp;F48&amp;G48&amp;H48&amp;I48&amp;J48&amp;K48&amp;L48&amp;M48&amp;N48&amp;O48&amp;P48&amp;Q48&amp;R48&amp;S48&amp;T48</f>
+        <v>*-**-GK-KADEMUUR_ONTLASTVLOER_HOOGGELEGEN</v>
       </c>
       <c r="Z48" t="s">
         <v>55</v>
@@ -7336,8 +7476,9 @@
       <c r="J49" t="s">
         <v>202</v>
       </c>
-      <c r="Y49" s="1" t="s">
-        <v>235</v>
+      <c r="Y49" s="1" t="str">
+        <f>B49&amp;C49&amp;D49&amp;E49&amp;F49&amp;G49&amp;H49&amp;I49&amp;J49&amp;K49&amp;L49&amp;M49&amp;N49&amp;O49&amp;P49&amp;Q49&amp;R49&amp;S49&amp;T49</f>
+        <v>*-**-GK-KADEMUUR_OVERBOUWD TALUD</v>
       </c>
       <c r="Z49" t="s">
         <v>55</v>
@@ -7467,8 +7608,15 @@
       <c r="J50" t="s">
         <v>202</v>
       </c>
-      <c r="Y50" s="1" t="s">
-        <v>235</v>
+      <c r="K50" t="s">
+        <v>6</v>
+      </c>
+      <c r="L50" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y50" s="1" t="str">
+        <f>B50&amp;C50&amp;D50&amp;E50&amp;F50&amp;G50&amp;H50&amp;I50&amp;J50&amp;K50&amp;L50&amp;M50&amp;N50&amp;O50&amp;P50&amp;Q50&amp;R50&amp;S50&amp;T50</f>
+        <v>*-**-GK-KADEMUUR_OVERBOUWD TALUD_DEK OVER GLOOIINGSCONSTRUCTIE</v>
       </c>
       <c r="Z50" t="s">
         <v>55</v>
@@ -7598,8 +7746,15 @@
       <c r="J51" t="s">
         <v>202</v>
       </c>
-      <c r="Y51" s="1" t="s">
-        <v>235</v>
+      <c r="K51" t="s">
+        <v>6</v>
+      </c>
+      <c r="L51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y51" s="1" t="str">
+        <f>B51&amp;C51&amp;D51&amp;E51&amp;F51&amp;G51&amp;H51&amp;I51&amp;J51&amp;K51&amp;L51&amp;M51&amp;N51&amp;O51&amp;P51&amp;Q51&amp;R51&amp;S51&amp;T51</f>
+        <v>*-**-GK-KADEMUUR_OVERBOUWD TALUD_MET KERENDE WAND</v>
       </c>
       <c r="Z51" t="s">
         <v>55</v>
@@ -7729,8 +7884,9 @@
       <c r="J52" t="s">
         <v>205</v>
       </c>
-      <c r="Y52" s="1" t="s">
-        <v>240</v>
+      <c r="Y52" s="1" t="str">
+        <f>B52&amp;C52&amp;D52&amp;E52&amp;F52&amp;G52&amp;H52&amp;I52&amp;J52&amp;K52&amp;L52&amp;M52&amp;N52&amp;O52&amp;P52&amp;Q52&amp;R52&amp;S52&amp;T52</f>
+        <v>*-**-GK-KADEMUUR_WANDCONSTRUCTIE</v>
       </c>
       <c r="Z52" t="s">
         <v>55</v>
@@ -7860,8 +8016,15 @@
       <c r="J53" t="s">
         <v>205</v>
       </c>
-      <c r="Y53" s="1" t="s">
-        <v>240</v>
+      <c r="K53" t="s">
+        <v>6</v>
+      </c>
+      <c r="L53" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y53" s="1" t="str">
+        <f>B53&amp;C53&amp;D53&amp;E53&amp;F53&amp;G53&amp;H53&amp;I53&amp;J53&amp;K53&amp;L53&amp;M53&amp;N53&amp;O53&amp;P53&amp;Q53&amp;R53&amp;S53&amp;T53</f>
+        <v>*-**-GK-KADEMUUR_WANDCONSTRUCTIE_ONVERANKERD</v>
       </c>
       <c r="Z53" t="s">
         <v>55</v>
@@ -7991,8 +8154,15 @@
       <c r="J54" t="s">
         <v>205</v>
       </c>
-      <c r="Y54" s="1" t="s">
-        <v>240</v>
+      <c r="K54" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y54" s="1" t="str">
+        <f>B54&amp;C54&amp;D54&amp;E54&amp;F54&amp;G54&amp;H54&amp;I54&amp;J54&amp;K54&amp;L54&amp;M54&amp;N54&amp;O54&amp;P54&amp;Q54&amp;R54&amp;S54&amp;T54</f>
+        <v>*-**-GK-KADEMUUR_WANDCONSTRUCTIE_VERANKERD</v>
       </c>
       <c r="Z54" t="s">
         <v>55</v>
@@ -8116,8 +8286,9 @@
       <c r="H55" t="s">
         <v>191</v>
       </c>
-      <c r="Y55" s="1" t="s">
-        <v>248</v>
+      <c r="Y55" s="1" t="str">
+        <f>B55&amp;C55&amp;D55&amp;E55&amp;F55&amp;G55&amp;H55&amp;I55&amp;J55&amp;K55&amp;L55&amp;M55&amp;N55&amp;O55&amp;P55&amp;Q55&amp;R55&amp;S55&amp;T55</f>
+        <v>*-**-GK-KEERWAND</v>
       </c>
       <c r="Z55" t="s">
         <v>55</v>
@@ -8241,8 +8412,9 @@
       <c r="J56" t="s">
         <v>194</v>
       </c>
-      <c r="Y56" s="1" t="s">
-        <v>232</v>
+      <c r="Y56" s="1" t="str">
+        <f>B56&amp;C56&amp;D56&amp;E56&amp;F56&amp;G56&amp;H56&amp;I56&amp;J56&amp;K56&amp;L56&amp;M56&amp;N56&amp;O56&amp;P56&amp;Q56&amp;R56&amp;S56&amp;T56</f>
+        <v>*-**-GK-KEERWAND_LEGIOBLOKKEN</v>
       </c>
       <c r="Z56" t="s">
         <v>55</v>
@@ -8372,8 +8544,9 @@
       <c r="J57" t="s">
         <v>209</v>
       </c>
-      <c r="Y57" s="1" t="s">
-        <v>233</v>
+      <c r="Y57" s="1" t="str">
+        <f>B57&amp;C57&amp;D57&amp;E57&amp;F57&amp;G57&amp;H57&amp;I57&amp;J57&amp;K57&amp;L57&amp;M57&amp;N57&amp;O57&amp;P57&amp;Q57&amp;R57&amp;S57&amp;T57</f>
+        <v>*-**-GK-KEERWAND_LWAND</v>
       </c>
       <c r="Z57" t="s">
         <v>55</v>
@@ -8500,8 +8673,9 @@
       <c r="J58" t="s">
         <v>195</v>
       </c>
-      <c r="Y58" s="1" t="s">
-        <v>236</v>
+      <c r="Y58" s="1" t="str">
+        <f>B58&amp;C58&amp;D58&amp;E58&amp;F58&amp;G58&amp;H58&amp;I58&amp;J58&amp;K58&amp;L58&amp;M58&amp;N58&amp;O58&amp;P58&amp;Q58&amp;R58&amp;S58&amp;T58</f>
+        <v>*-**-GK-KEERWAND_SCHANSKORF</v>
       </c>
       <c r="Z58" t="s">
         <v>55</v>
@@ -8631,8 +8805,9 @@
       <c r="J59" t="s">
         <v>196</v>
       </c>
-      <c r="Y59" s="1" t="s">
-        <v>238</v>
+      <c r="Y59" s="1" t="str">
+        <f>B59&amp;C59&amp;D59&amp;E59&amp;F59&amp;G59&amp;H59&amp;I59&amp;J59&amp;K59&amp;L59&amp;M59&amp;N59&amp;O59&amp;P59&amp;Q59&amp;R59&amp;S59&amp;T59</f>
+        <v>*-**-GK-KEERWAND_TERRE ARMEE</v>
       </c>
       <c r="Z59" t="s">
         <v>55</v>
@@ -8762,8 +8937,9 @@
       <c r="J60" t="s">
         <v>193</v>
       </c>
-      <c r="Y60" s="1" t="s">
-        <v>239</v>
+      <c r="Y60" s="1" t="str">
+        <f>B60&amp;C60&amp;D60&amp;E60&amp;F60&amp;G60&amp;H60&amp;I60&amp;J60&amp;K60&amp;L60&amp;M60&amp;N60&amp;O60&amp;P60&amp;Q60&amp;R60&amp;S60&amp;T60</f>
+        <v>*-**-GK-KEERWAND_TWAND</v>
       </c>
       <c r="Z60" t="s">
         <v>55</v>
@@ -8887,8 +9063,9 @@
       <c r="H61" t="s">
         <v>187</v>
       </c>
-      <c r="Y61" s="1" t="s">
-        <v>247</v>
+      <c r="Y61" s="1" t="str">
+        <f>B61&amp;C61&amp;D61&amp;E61&amp;F61&amp;G61&amp;H61&amp;I61&amp;J61&amp;K61&amp;L61&amp;M61&amp;N61&amp;O61&amp;P61&amp;Q61&amp;R61&amp;S61&amp;T61</f>
+        <v>*-**-GK-PALENRIJ</v>
       </c>
       <c r="Z61" t="s">
         <v>55</v>
